--- a/ig/ch-rad-order/StructureDefinition-ch-rad-order-document.xlsx
+++ b/ig/ch-rad-order/StructureDefinition-ch-rad-order-document.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0-ballot</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T11:27:24+00:00</t>
+    <t>2024-12-18T10:05:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-rad-order/StructureDefinition-ch-rad-order-document.xlsx
+++ b/ig/ch-rad-order/StructureDefinition-ch-rad-order-document.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T10:05:02+00:00</t>
+    <t>2025-12-17T07:22:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -371,7 +371,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -510,7 +510,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -598,7 +598,7 @@
     <t>Bundle.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1638,11 +1638,11 @@
     <t>Bundle.entry:RelatedPerson.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource {RelatedPerson}
+    <t xml:space="preserve">Resource {http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-relatedperson}
 </t>
   </si>
   <si>
-    <t>A person that is related to a patient, but who is not a direct target of care</t>
+    <t>CH Core RelatedPerson</t>
   </si>
   <si>
     <t>Information about a person that is involved in the care for a patient, but who is not the target of healthcare, nor has a formal responsibility in the care process.</t>
@@ -3224,17 +3224,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="61.38671875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.0078125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="22.80859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="44.00390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="52.62890625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.44140625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="19.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="37.7265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="80.26953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="68.81640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3243,26 +3243,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="168.19140625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="49.01171875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.98046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="144.1953125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="42.01953125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.98828125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="31.1328125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="102.6171875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="42.9765625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="87.9765625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="36.84375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3953,7 +3953,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>116</v>
       </c>
@@ -4525,7 +4525,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
         <v>161</v>
       </c>
@@ -4641,7 +4641,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
         <v>171</v>
       </c>
@@ -4981,7 +4981,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
         <v>194</v>
       </c>
@@ -5095,7 +5095,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>201</v>
       </c>
@@ -6022,7 +6022,7 @@
         <v>80</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>78</v>
@@ -9623,7 +9623,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
         <v>324</v>
       </c>
@@ -10204,7 +10204,7 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>88</v>
@@ -10290,7 +10290,7 @@
         <v>78</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>100</v>
+        <v>249</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>78</v>
@@ -10305,7 +10305,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
         <v>331</v>
       </c>
@@ -13830,7 +13830,7 @@
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>88</v>
@@ -13916,7 +13916,7 @@
         <v>78</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>100</v>
+        <v>249</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>78</v>
@@ -17454,7 +17454,7 @@
       </c>
       <c r="E126" s="2"/>
       <c r="F126" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G126" t="s" s="2">
         <v>88</v>
@@ -17540,7 +17540,7 @@
         <v>78</v>
       </c>
       <c r="AJ126" t="s" s="2">
-        <v>100</v>
+        <v>249</v>
       </c>
       <c r="AK126" t="s" s="2">
         <v>78</v>
@@ -21078,7 +21078,7 @@
       </c>
       <c r="E158" s="2"/>
       <c r="F158" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G158" t="s" s="2">
         <v>88</v>
@@ -21164,7 +21164,7 @@
         <v>78</v>
       </c>
       <c r="AJ158" t="s" s="2">
-        <v>100</v>
+        <v>249</v>
       </c>
       <c r="AK158" t="s" s="2">
         <v>78</v>
@@ -24702,7 +24702,7 @@
       </c>
       <c r="E190" s="2"/>
       <c r="F190" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G190" t="s" s="2">
         <v>88</v>
@@ -24788,7 +24788,7 @@
         <v>78</v>
       </c>
       <c r="AJ190" t="s" s="2">
-        <v>100</v>
+        <v>249</v>
       </c>
       <c r="AK190" t="s" s="2">
         <v>78</v>
@@ -28326,7 +28326,7 @@
       </c>
       <c r="E222" s="2"/>
       <c r="F222" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G222" t="s" s="2">
         <v>88</v>
@@ -28412,7 +28412,7 @@
         <v>78</v>
       </c>
       <c r="AJ222" t="s" s="2">
-        <v>100</v>
+        <v>249</v>
       </c>
       <c r="AK222" t="s" s="2">
         <v>78</v>
@@ -31950,7 +31950,7 @@
       </c>
       <c r="E254" s="2"/>
       <c r="F254" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G254" t="s" s="2">
         <v>88</v>
@@ -32036,7 +32036,7 @@
         <v>78</v>
       </c>
       <c r="AJ254" t="s" s="2">
-        <v>100</v>
+        <v>249</v>
       </c>
       <c r="AK254" t="s" s="2">
         <v>78</v>
@@ -35574,7 +35574,7 @@
       </c>
       <c r="E286" s="2"/>
       <c r="F286" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G286" t="s" s="2">
         <v>88</v>
@@ -35660,7 +35660,7 @@
         <v>78</v>
       </c>
       <c r="AJ286" t="s" s="2">
-        <v>100</v>
+        <v>249</v>
       </c>
       <c r="AK286" t="s" s="2">
         <v>78</v>
@@ -39198,7 +39198,7 @@
       </c>
       <c r="E318" s="2"/>
       <c r="F318" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G318" t="s" s="2">
         <v>88</v>
@@ -39284,7 +39284,7 @@
         <v>78</v>
       </c>
       <c r="AJ318" t="s" s="2">
-        <v>100</v>
+        <v>249</v>
       </c>
       <c r="AK318" t="s" s="2">
         <v>78</v>
@@ -42241,7 +42241,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="345" hidden="true">
+    <row r="345">
       <c r="A345" t="s" s="2">
         <v>662</v>
       </c>
@@ -42923,7 +42923,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="351" hidden="true">
+    <row r="351">
       <c r="A351" t="s" s="2">
         <v>669</v>
       </c>
@@ -45865,7 +45865,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="377" hidden="true">
+    <row r="377">
       <c r="A377" t="s" s="2">
         <v>700</v>
       </c>
@@ -46547,7 +46547,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="383" hidden="true">
+    <row r="383">
       <c r="A383" t="s" s="2">
         <v>707</v>
       </c>
@@ -49491,7 +49491,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="409" hidden="true">
+    <row r="409">
       <c r="A409" t="s" s="2">
         <v>739</v>
       </c>
@@ -50173,7 +50173,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="415" hidden="true">
+    <row r="415">
       <c r="A415" t="s" s="2">
         <v>746</v>
       </c>
@@ -53115,7 +53115,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="441" hidden="true">
+    <row r="441">
       <c r="A441" t="s" s="2">
         <v>778</v>
       </c>
@@ -53797,7 +53797,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="447" hidden="true">
+    <row r="447">
       <c r="A447" t="s" s="2">
         <v>785</v>
       </c>
@@ -56741,7 +56741,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="473" hidden="true">
+    <row r="473">
       <c r="A473" t="s" s="2">
         <v>817</v>
       </c>
@@ -57423,7 +57423,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="479" hidden="true">
+    <row r="479">
       <c r="A479" t="s" s="2">
         <v>824</v>
       </c>
@@ -60367,7 +60367,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="505" hidden="true">
+    <row r="505">
       <c r="A505" t="s" s="2">
         <v>855</v>
       </c>
@@ -61049,7 +61049,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="511" hidden="true">
+    <row r="511">
       <c r="A511" t="s" s="2">
         <v>862</v>
       </c>
@@ -63991,7 +63991,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="537" hidden="true">
+    <row r="537">
       <c r="A537" t="s" s="2">
         <v>892</v>
       </c>
@@ -64673,7 +64673,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="543" hidden="true">
+    <row r="543">
       <c r="A543" t="s" s="2">
         <v>899</v>
       </c>
@@ -67735,12 +67735,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AN569">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
